--- a/landscape 16s richness stats.xlsx
+++ b/landscape 16s richness stats.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsuda/Desktop/Mcapitata_microbial_landscape/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaylematsuda/Desktop/Projects/Mcapitata_microbial_landscape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB79158-B11A-B54F-B912-58BA12A7D003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD504C66-02D1-A845-A31E-EA9350CA389C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{BF1415AD-8428-B448-8878-A96AF3AA8227}"/>
+    <workbookView xWindow="36680" yWindow="1620" windowWidth="23820" windowHeight="16940" activeTab="5" xr2:uid="{BF1415AD-8428-B448-8878-A96AF3AA8227}"/>
   </bookViews>
   <sheets>
-    <sheet name="shanon" sheetId="1" r:id="rId1"/>
-    <sheet name="observed" sheetId="2" r:id="rId2"/>
+    <sheet name="observed" sheetId="2" r:id="rId1"/>
+    <sheet name="evenness" sheetId="3" r:id="rId2"/>
+    <sheet name="shanon" sheetId="1" r:id="rId3"/>
+    <sheet name="beta" sheetId="4" r:id="rId4"/>
+    <sheet name="top phyla" sheetId="5" r:id="rId5"/>
+    <sheet name="core" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,38 +41,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="191">
   <si>
     <t>Lowest-Deepest</t>
   </si>
   <si>
-    <t>Branch mid-Branch base</t>
-  </si>
-  <si>
     <t>Branch tip-Branch base</t>
   </si>
   <si>
     <t>Branch tip-Branch mid</t>
   </si>
   <si>
-    <t>Deepest-Branch base</t>
-  </si>
-  <si>
-    <t>Deepest-Branch mid</t>
-  </si>
-  <si>
-    <t>Deepest-Branch tip</t>
-  </si>
-  <si>
-    <t>Lowest-Branch base</t>
-  </si>
-  <si>
-    <t>Lowest-Branch mid</t>
-  </si>
-  <si>
-    <t>Lowest-Branch tip</t>
-  </si>
-  <si>
     <t>Branch mid-Branch mid-Branch base</t>
   </si>
   <si>
@@ -161,29 +145,482 @@
     <t>thingc</t>
   </si>
   <si>
-    <t>Plate edge-Deepest</t>
-  </si>
-  <si>
-    <t>Plate top-Deepest</t>
-  </si>
-  <si>
-    <t>Plate underside-Deepest</t>
-  </si>
-  <si>
-    <t>Plate edge-Lowest</t>
-  </si>
-  <si>
-    <t>Plate top-Lowest</t>
-  </si>
-  <si>
-    <t>Plate underside-Lowest</t>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Sq</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Pr(&gt;F)</t>
+  </si>
+  <si>
+    <t>tag.id</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Prop.D</t>
+  </si>
+  <si>
+    <t>tag.id:location</t>
+  </si>
+  <si>
+    <t>tag.id:Prop.D</t>
+  </si>
+  <si>
+    <t>location:Prop.D</t>
+  </si>
+  <si>
+    <t>tag.id:location:Prop.D</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>SHANNON</t>
+  </si>
+  <si>
+    <t>OBSERVED</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>lwr</t>
+  </si>
+  <si>
+    <t>upr</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>adj</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>mid-Branch</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>base-Branch</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>top-Branch</t>
+  </si>
+  <si>
+    <t>edge-Branch</t>
+  </si>
+  <si>
+    <t>underside-Branch</t>
+  </si>
+  <si>
+    <t>Deepest-Branch</t>
+  </si>
+  <si>
+    <t>Lowest-Branch</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>edge-Plate</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>underside-Plate</t>
+  </si>
+  <si>
+    <t>Deepest-Plate</t>
+  </si>
+  <si>
+    <t>Lowest-Plate</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>underside</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Evenness</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>adonis</t>
+  </si>
+  <si>
+    <t>missing PropD</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">these sound both be in the 16s propD. </t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>adonis2(formula</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Bac.wu</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Prop.D,</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>samp.df)</t>
+  </si>
+  <si>
+    <t>SumOfSqs</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Dispersion</t>
+  </si>
+  <si>
+    <t>GENOTYPE</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>only one sig</t>
+  </si>
+  <si>
+    <t>sub_loc</t>
+  </si>
+  <si>
+    <t>tag.id:sub_loc</t>
+  </si>
+  <si>
+    <t>Branches and Plates only</t>
+  </si>
+  <si>
+    <t>colony * branch or plate</t>
+  </si>
+  <si>
+    <t>samp_loc</t>
+  </si>
+  <si>
+    <t>tag.id:samp_loc</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>top10P.names.mcap</t>
+  </si>
+  <si>
+    <t>Deinococcus-Thermus</t>
+  </si>
+  <si>
+    <t>Cyanobacteria</t>
+  </si>
+  <si>
+    <t>Firmicutes</t>
+  </si>
+  <si>
+    <t>Proteobacteria</t>
+  </si>
+  <si>
+    <t>Bacteroidetes</t>
+  </si>
+  <si>
+    <t>Aquificae</t>
+  </si>
+  <si>
+    <t>Euryarchaeota</t>
+  </si>
+  <si>
+    <t>Actinobacteria</t>
+  </si>
+  <si>
+    <t>Verrucomicrobia</t>
+  </si>
+  <si>
+    <t>WPS-2</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>No. of core taxa in Branch mid : 5</t>
+  </si>
+  <si>
+    <t>No. of core taxa in Branch base : 5</t>
+  </si>
+  <si>
+    <t>No. of core taxa in Plate top : 6</t>
+  </si>
+  <si>
+    <t>No. of core taxa in Plate edge : 7</t>
+  </si>
+  <si>
+    <t>No. of core taxa in Branch tip : 6</t>
+  </si>
+  <si>
+    <t>No. of core taxa in Plate underside : 9</t>
+  </si>
+  <si>
+    <t>No. of core taxa in Deepest : 5</t>
+  </si>
+  <si>
+    <t>No. of core taxa in Lowest : 4</t>
+  </si>
+  <si>
+    <t>$Deepest</t>
+  </si>
+  <si>
+    <t>$Lowest</t>
+  </si>
+  <si>
+    <t>$`Branch</t>
+  </si>
+  <si>
+    <t>mid`</t>
+  </si>
+  <si>
+    <t>Otu00001</t>
+  </si>
+  <si>
+    <t>Otu00009</t>
+  </si>
+  <si>
+    <t>Otu00004</t>
+  </si>
+  <si>
+    <t>Otu00011</t>
+  </si>
+  <si>
+    <t>Otu00013</t>
+  </si>
+  <si>
+    <t>base`</t>
+  </si>
+  <si>
+    <t>$`Plate</t>
+  </si>
+  <si>
+    <t>top`</t>
+  </si>
+  <si>
+    <t>Otu00020</t>
+  </si>
+  <si>
+    <t>Otu00017</t>
+  </si>
+  <si>
+    <t>edge`</t>
+  </si>
+  <si>
+    <t>Otu00030</t>
+  </si>
+  <si>
+    <t>tip`</t>
+  </si>
+  <si>
+    <t>Otu00010</t>
+  </si>
+  <si>
+    <t>underside`</t>
+  </si>
+  <si>
+    <t>Otu00032</t>
+  </si>
+  <si>
+    <t>Otu00048</t>
+  </si>
+  <si>
+    <t>Bacteria</t>
+  </si>
+  <si>
+    <t>Deltaproteobacteria</t>
+  </si>
+  <si>
+    <t>Myxococcales</t>
+  </si>
+  <si>
+    <t>P3OB-42</t>
+  </si>
+  <si>
+    <t>P3OB-42_ge</t>
+  </si>
+  <si>
+    <t>Gammaproteobacteria</t>
+  </si>
+  <si>
+    <t>Betaproteobacteriales</t>
+  </si>
+  <si>
+    <t>Hydrogenophilaceae</t>
+  </si>
+  <si>
+    <t>Hydrogenophilus</t>
+  </si>
+  <si>
+    <t>Bacilli</t>
+  </si>
+  <si>
+    <t>Bacillales</t>
+  </si>
+  <si>
+    <t>Bacillaceae</t>
+  </si>
+  <si>
+    <t>Anoxybacillus</t>
+  </si>
+  <si>
+    <t>Ignavibacteria</t>
+  </si>
+  <si>
+    <t>OPB56</t>
+  </si>
+  <si>
+    <t>OPB56_fa</t>
+  </si>
+  <si>
+    <t>OPB56_ge</t>
+  </si>
+  <si>
+    <t>Deinococci</t>
+  </si>
+  <si>
+    <t>Thermales</t>
+  </si>
+  <si>
+    <t>Thermaceae</t>
+  </si>
+  <si>
+    <t>Meiothermus</t>
+  </si>
+  <si>
+    <t>Oxyphotobacteria</t>
+  </si>
+  <si>
+    <t>Synechococcales</t>
+  </si>
+  <si>
+    <t>Cyanobiaceae</t>
+  </si>
+  <si>
+    <t>Synechococcus_CC9902</t>
+  </si>
+  <si>
+    <t>Oxyphotobacteria_unclassified</t>
+  </si>
+  <si>
+    <t>Bacteroidia</t>
+  </si>
+  <si>
+    <t>Sphingobacteriales</t>
+  </si>
+  <si>
+    <t>env.OPS_17</t>
+  </si>
+  <si>
+    <t>env.OPS_17_ge</t>
+  </si>
+  <si>
+    <t>Otu00056</t>
+  </si>
+  <si>
+    <t>Oceanospirillales</t>
+  </si>
+  <si>
+    <t>Endozoicomonadaceae</t>
+  </si>
+  <si>
+    <t>Endozoicomonas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,8 +636,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +653,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,10 +693,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,7 +726,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -536,18 +1014,1689 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B009FEBE-8915-E245-A8F6-CE7BFAEEA538}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C199B99-468E-BA49-8148-C7B4FD536583}">
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.3070000000000004</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.5920000000000001</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9.0299999999999997E-7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.3140000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.61629999999999996</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9.5939999999999994</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6.0499999999999998E-10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.1333</v>
+      </c>
+      <c r="E5">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>9.1549999999999994</v>
+      </c>
+      <c r="D6">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="F6">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="D7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D8">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>1.871</v>
+      </c>
+      <c r="D9">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.004</v>
+      </c>
+      <c r="F9">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>161</v>
+      </c>
+      <c r="C10">
+        <v>10.342000000000001</v>
+      </c>
+      <c r="D10">
+        <v>6.4199999999999993E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.19656000000000001</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.141</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>351</v>
+      </c>
+      <c r="C13">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="D13">
+        <v>9.1819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-66.993333300000003</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-112.77995</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-21.206718550000001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.923E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>-45.864864900000001</v>
+      </c>
+      <c r="E18">
+        <v>-91.802760000000006</v>
+      </c>
+      <c r="F18">
+        <v>7.3027690000000006E-2</v>
+      </c>
+      <c r="G18">
+        <v>5.0698800000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>-49.233333299999998</v>
+      </c>
+      <c r="E19">
+        <v>-127.99674</v>
+      </c>
+      <c r="F19">
+        <v>29.53007414</v>
+      </c>
+      <c r="G19">
+        <v>0.54753269999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>-26.928571399999999</v>
+      </c>
+      <c r="E20">
+        <v>-107.98654000000001</v>
+      </c>
+      <c r="F20">
+        <v>54.129395629999998</v>
+      </c>
+      <c r="G20">
+        <v>0.97229569999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>-64.714285700000005</v>
+      </c>
+      <c r="E21">
+        <v>-145.77225000000001</v>
+      </c>
+      <c r="F21">
+        <v>16.34368134</v>
+      </c>
+      <c r="G21">
+        <v>0.22801730000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>-45.197674399999997</v>
+      </c>
+      <c r="E22">
+        <v>-98.681839999999994</v>
+      </c>
+      <c r="F22">
+        <v>8.2864871400000002</v>
+      </c>
+      <c r="G22">
+        <v>0.16789950000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>-25.304347799999999</v>
+      </c>
+      <c r="E23">
+        <v>-77.685199999999995</v>
+      </c>
+      <c r="F23">
+        <v>27.076507700000001</v>
+      </c>
+      <c r="G23">
+        <v>0.82126350000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24">
+        <v>21.1284685</v>
+      </c>
+      <c r="E24">
+        <v>-24.341370000000001</v>
+      </c>
+      <c r="F24">
+        <v>66.598304749999997</v>
+      </c>
+      <c r="G24">
+        <v>0.84900540000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="E25">
+        <v>-60.731340000000003</v>
+      </c>
+      <c r="F25">
+        <v>96.251339630000004</v>
+      </c>
+      <c r="G25">
+        <v>0.99722460000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>40.064761900000001</v>
+      </c>
+      <c r="E26">
+        <v>-40.728859999999997</v>
+      </c>
+      <c r="F26">
+        <v>120.85838828</v>
+      </c>
+      <c r="G26">
+        <v>0.80054329999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27">
+        <v>2.2790476000000002</v>
+      </c>
+      <c r="E27">
+        <v>-78.514579999999995</v>
+      </c>
+      <c r="F27">
+        <v>83.072673989999998</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <v>21.795658899999999</v>
+      </c>
+      <c r="E28">
+        <v>-31.287030000000001</v>
+      </c>
+      <c r="F28">
+        <v>74.878345139999993</v>
+      </c>
+      <c r="G28">
+        <v>0.91538220000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>41.688985500000001</v>
+      </c>
+      <c r="E29">
+        <v>-10.28187</v>
+      </c>
+      <c r="F29">
+        <v>93.659843350000003</v>
+      </c>
+      <c r="G29">
+        <v>0.22266079999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <v>-3.3684685000000001</v>
+      </c>
+      <c r="E30">
+        <v>-81.948149999999998</v>
+      </c>
+      <c r="F30">
+        <v>75.211212590000002</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31">
+        <v>18.9362934</v>
+      </c>
+      <c r="E31">
+        <v>-61.943159999999999</v>
+      </c>
+      <c r="F31">
+        <v>99.815746590000003</v>
+      </c>
+      <c r="G31">
+        <v>0.99655899999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <v>-18.849420800000001</v>
+      </c>
+      <c r="E32">
+        <v>-99.728870000000001</v>
+      </c>
+      <c r="F32">
+        <v>62.030032300000002</v>
+      </c>
+      <c r="G32">
+        <v>0.99665689999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33">
+        <v>0.66719039999999996</v>
+      </c>
+      <c r="E33">
+        <v>-52.546039999999998</v>
+      </c>
+      <c r="F33">
+        <v>53.880416769999997</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34">
+        <v>20.560517000000001</v>
+      </c>
+      <c r="E34">
+        <v>-31.543669999999999</v>
+      </c>
+      <c r="F34">
+        <v>72.664700600000003</v>
+      </c>
+      <c r="G34">
+        <v>0.93060889999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35">
+        <v>22.304761899999999</v>
+      </c>
+      <c r="E35">
+        <v>-80.820750000000004</v>
+      </c>
+      <c r="F35">
+        <v>125.43026955000001</v>
+      </c>
+      <c r="G35">
+        <v>0.99791529999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36">
+        <v>-15.4809524</v>
+      </c>
+      <c r="E36">
+        <v>-118.60646</v>
+      </c>
+      <c r="F36">
+        <v>87.644555260000004</v>
+      </c>
+      <c r="G36">
+        <v>0.99980939999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37">
+        <v>4.0356588999999996</v>
+      </c>
+      <c r="E37">
+        <v>-79.181120000000007</v>
+      </c>
+      <c r="F37">
+        <v>87.252435109999993</v>
+      </c>
+      <c r="G37">
+        <v>0.99999990000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38">
+        <v>23.9289855</v>
+      </c>
+      <c r="E38">
+        <v>-58.583019999999998</v>
+      </c>
+      <c r="F38">
+        <v>106.44098663</v>
+      </c>
+      <c r="G38">
+        <v>0.987313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39">
+        <v>-37.785714300000002</v>
+      </c>
+      <c r="E39">
+        <v>-142.67418000000001</v>
+      </c>
+      <c r="F39">
+        <v>67.10275025</v>
+      </c>
+      <c r="G39">
+        <v>0.95684130000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40">
+        <v>-18.269103000000001</v>
+      </c>
+      <c r="E40">
+        <v>-103.66086</v>
+      </c>
+      <c r="F40">
+        <v>67.12265017</v>
+      </c>
+      <c r="G40">
+        <v>0.99805520000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41">
+        <v>1.6242236000000001</v>
+      </c>
+      <c r="E41">
+        <v>-83.080849999999998</v>
+      </c>
+      <c r="F41">
+        <v>86.329300169999996</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42">
+        <v>19.516611300000001</v>
+      </c>
+      <c r="E42">
+        <v>-65.875140000000002</v>
+      </c>
+      <c r="F42">
+        <v>104.90836444999999</v>
+      </c>
+      <c r="G42">
+        <v>0.99704280000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <v>39.409937900000003</v>
+      </c>
+      <c r="E43">
+        <v>-45.295140000000004</v>
+      </c>
+      <c r="F43">
+        <v>124.11501445</v>
+      </c>
+      <c r="G43">
+        <v>0.84815459999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>19.893326600000002</v>
+      </c>
+      <c r="E44">
+        <v>-38.971870000000003</v>
+      </c>
+      <c r="F44">
+        <v>78.758524370000004</v>
+      </c>
+      <c r="G44">
+        <v>0.96953029999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E28">
+    <sortCondition ref="E1:E28"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B52DBA0-7F7A-7F4A-BA00-720A67D4C5A3}">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>1.1839</v>
+      </c>
+      <c r="D3">
+        <v>5.1470000000000002E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.9809999999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.3200000000000001E-5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="D4">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="E4">
+        <v>3.7469999999999999</v>
+      </c>
+      <c r="F4">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.155</v>
+      </c>
+      <c r="F5">
+        <v>0.69457000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>1.9367000000000001</v>
+      </c>
+      <c r="D6">
+        <v>1.7139999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.51300999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>7.6299999999999996E-3</v>
+      </c>
+      <c r="E7">
+        <v>0.442</v>
+      </c>
+      <c r="F7">
+        <v>0.93479999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.256E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.64888000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="D9">
+        <v>2.6270000000000002E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.522</v>
+      </c>
+      <c r="F9">
+        <v>5.7410000000000003E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>154</v>
+      </c>
+      <c r="C10">
+        <v>2.6587999999999998</v>
+      </c>
+      <c r="D10">
+        <v>1.7260000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D12">
+        <v>2.944E-3</v>
+      </c>
+      <c r="E12">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>351</v>
+      </c>
+      <c r="C13">
+        <v>7.3090000000000002</v>
+      </c>
+      <c r="D13">
+        <v>2.0823000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-7.8308338500000005E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-0.1494538</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-7.1628810000000003E-3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.9604799999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-9.1868681899999999E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-0.16324920000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-2.0488162000000001E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.6281E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>-2.7203908299999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>-0.14959030000000001</v>
+      </c>
+      <c r="F18">
+        <v>9.5182485999999997E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.99751990000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>-2.3013159599999999E-2</v>
+      </c>
+      <c r="E19">
+        <v>-0.14896495000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.102938632</v>
+      </c>
+      <c r="G19">
+        <v>0.99929950000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>-7.8487604899999994E-2</v>
+      </c>
+      <c r="E20">
+        <v>-0.20443939999999999</v>
+      </c>
+      <c r="F20">
+        <v>4.7464186999999998E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.55157369999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>-7.7013683599999994E-2</v>
+      </c>
+      <c r="E21">
+        <v>-0.16011996000000001</v>
+      </c>
+      <c r="F21">
+        <v>6.0925950000000001E-3</v>
+      </c>
+      <c r="G21">
+        <v>9.1972300000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>-4.8705817800000002E-2</v>
+      </c>
+      <c r="E22">
+        <v>-0.13009772999999999</v>
+      </c>
+      <c r="F22">
+        <v>3.2686090000000001E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.60349450000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23">
+        <v>-1.35603435E-2</v>
+      </c>
+      <c r="E23">
+        <v>-8.4213579999999996E-2</v>
+      </c>
+      <c r="F23">
+        <v>5.7092888000000001E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.99903430000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24">
+        <v>5.1104430200000002E-2</v>
+      </c>
+      <c r="E24">
+        <v>-7.0859210000000006E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.17306807199999999</v>
+      </c>
+      <c r="G24">
+        <v>0.90656789999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>5.5295178899999999E-2</v>
+      </c>
+      <c r="E25">
+        <v>-7.0245870000000002E-2</v>
+      </c>
+      <c r="F25">
+        <v>0.18083622499999999</v>
+      </c>
+      <c r="G25">
+        <v>0.88157600000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>-1.792664E-4</v>
+      </c>
+      <c r="E26">
+        <v>-0.12572031</v>
+      </c>
+      <c r="F26">
+        <v>0.12536178000000001</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27">
+        <v>1.2946549E-3</v>
+      </c>
+      <c r="E27">
+        <v>-8.1187789999999996E-2</v>
+      </c>
+      <c r="F27">
+        <v>8.3777101000000007E-2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <v>2.9602520699999999E-2</v>
+      </c>
+      <c r="E28">
+        <v>-5.1152309999999999E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.110357355</v>
+      </c>
+      <c r="G28">
+        <v>0.95264530000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29">
+        <v>6.4664773699999997E-2</v>
+      </c>
+      <c r="E29">
+        <v>-5.7436139999999997E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.18676568499999999</v>
+      </c>
+      <c r="G29">
+        <v>0.74100029999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <v>6.8855522399999994E-2</v>
+      </c>
+      <c r="E30">
+        <v>-5.6818889999999997E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.19452992999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.70612200000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31">
+        <v>1.33810771E-2</v>
+      </c>
+      <c r="E31">
+        <v>-0.11229333</v>
+      </c>
+      <c r="F31">
+        <v>0.13905548500000001</v>
+      </c>
+      <c r="G31">
+        <v>0.99998140000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32">
+        <v>1.48549983E-2</v>
+      </c>
+      <c r="E32">
+        <v>-6.7830290000000001E-2</v>
+      </c>
+      <c r="F32">
+        <v>9.7540284000000005E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.99937290000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33">
+        <v>4.3162864199999998E-2</v>
+      </c>
+      <c r="E33">
+        <v>-3.7799140000000002E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.124124866</v>
+      </c>
+      <c r="G33">
+        <v>0.73440459999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34">
+        <v>4.1907487E-3</v>
+      </c>
+      <c r="E34">
+        <v>-0.15605066000000001</v>
+      </c>
+      <c r="F34">
+        <v>0.164432153</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35">
+        <v>-5.1283696599999998E-2</v>
+      </c>
+      <c r="E35">
+        <v>-0.21152509999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.108957707</v>
+      </c>
+      <c r="G35">
+        <v>0.97754810000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36">
+        <v>-4.9809775399999999E-2</v>
+      </c>
+      <c r="E36">
+        <v>-0.17911603000000001</v>
+      </c>
+      <c r="F36">
+        <v>7.9496477999999995E-2</v>
+      </c>
+      <c r="G36">
+        <v>0.93864040000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37">
+        <v>-2.1501909499999999E-2</v>
+      </c>
+      <c r="E37">
+        <v>-0.14971304999999999</v>
+      </c>
+      <c r="F37">
+        <v>0.106709231</v>
+      </c>
+      <c r="G37">
+        <v>0.99960159999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38">
+        <v>-5.5474445300000001E-2</v>
+      </c>
+      <c r="E38">
+        <v>-0.21845522000000001</v>
+      </c>
+      <c r="F38">
+        <v>0.107506327</v>
+      </c>
+      <c r="G38">
+        <v>0.96830079999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39">
+        <v>-5.4000524000000001E-2</v>
+      </c>
+      <c r="E39">
+        <v>-0.18668636</v>
+      </c>
+      <c r="F39">
+        <v>7.8685314000000006E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.9190005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40">
+        <v>-2.5692658199999999E-2</v>
+      </c>
+      <c r="E40">
+        <v>-0.15731150999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.105926189</v>
+      </c>
+      <c r="G40">
+        <v>0.99892210000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41">
+        <v>1.4739212000000001E-3</v>
+      </c>
+      <c r="E41">
+        <v>-0.13121192000000001</v>
+      </c>
+      <c r="F41">
+        <v>0.13415975899999999</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42">
+        <v>2.9781787099999998E-2</v>
+      </c>
+      <c r="E42">
+        <v>-0.10183705999999999</v>
+      </c>
+      <c r="F42">
+        <v>0.16140063399999999</v>
+      </c>
+      <c r="G42">
+        <v>0.99722409999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2.8307865799999998E-2</v>
+      </c>
+      <c r="E43">
+        <v>-6.3159729999999997E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.119775459</v>
+      </c>
+      <c r="G43">
+        <v>0.98146599999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B009FEBE-8915-E245-A8F6-CE7BFAEEA538}">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,24 +2707,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0.83899928000000001</v>
@@ -592,7 +2741,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0.958766593</v>
@@ -609,7 +2758,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>-0.71616938900000005</v>
@@ -626,7 +2775,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>-0.91346392300000001</v>
@@ -643,7 +2792,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>-0.57723019499999995</v>
@@ -659,76 +2808,76 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7">
         <v>-0.58325315</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>-1.23911064</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="7">
         <v>7.2604340000000003E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="7">
         <v>0.1224283</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
         <v>0.38153639900000003</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>-5.1221370000000002E-2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>0.81429417000000004</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>0.12953919999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
         <v>0.51727757600000002</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>-0.15548540999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>1.1900405599999999</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>0.27253579999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
         <v>-0.44148901800000001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>-1.1164531499999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
         <v>0.23347511000000001</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="7">
         <v>0.48692220000000003</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0.26176908500000001</v>
@@ -745,7 +2894,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0.397510262</v>
@@ -762,7 +2911,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0.37551344399999997</v>
@@ -779,7 +2928,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>0.24259720500000001</v>
@@ -796,7 +2945,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>-0.471974905</v>
@@ -813,7 +2962,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>-0.33623372800000001</v>
@@ -828,9 +2977,9 @@
         <v>0.8311596</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>0.25574613000000002</v>
@@ -845,9 +2994,9 @@
         <v>0.93389469999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0.27468037099999998</v>
@@ -862,9 +3011,9 @@
         <v>0.9377394</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>-0.33021077300000001</v>
@@ -879,9 +3028,9 @@
         <v>0.93918690000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>-0.119767314</v>
@@ -896,9 +3045,9 @@
         <v>0.9789928</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>-0.19729453399999999</v>
@@ -913,9 +3062,9 @@
         <v>0.99024440000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>0.122829891</v>
@@ -930,9 +3079,9 @@
         <v>0.99030010000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0.13574117699999999</v>
@@ -947,9 +3096,9 @@
         <v>0.99901709999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0.13291623899999999</v>
@@ -964,9 +3113,9 @@
         <v>0.99903799999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>-0.14176413199999999</v>
@@ -981,9 +3130,9 @@
         <v>0.999641</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>-7.4464642999999997E-2</v>
@@ -998,9 +3147,9 @@
         <v>0.99997599999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>4.5302670000000003E-2</v>
@@ -1015,9 +3164,9 @@
         <v>0.99999919999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>-6.022955E-3</v>
@@ -1032,9 +3181,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>-0.35122726999999998</v>
@@ -1044,6 +3193,234 @@
       </c>
       <c r="D29">
         <v>0.98891960000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="D33">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E33">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="F33">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>41.93</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5.99</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10.933999999999999</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0.2</v>
+      </c>
+      <c r="D35">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E35">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F35">
+        <v>0.55069999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>113</v>
+      </c>
+      <c r="C36">
+        <v>61.76</v>
+      </c>
+      <c r="D36">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E36">
+        <v>0.998</v>
+      </c>
+      <c r="F36">
+        <v>0.50129999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="D37">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="F37">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>2.72</v>
+      </c>
+      <c r="D38">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="F38">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>22.29</v>
+      </c>
+      <c r="D39">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="E39">
+        <v>1.403</v>
+      </c>
+      <c r="F39">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>161</v>
+      </c>
+      <c r="C40">
+        <v>88.2</v>
+      </c>
+      <c r="D40">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0.16</v>
+      </c>
+      <c r="D43">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="E43">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F43">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>351</v>
+      </c>
+      <c r="C44">
+        <v>239.91</v>
+      </c>
+      <c r="D44">
+        <v>0.6835</v>
       </c>
     </row>
   </sheetData>
@@ -1054,499 +3431,1282 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C199B99-468E-BA49-8148-C7B4FD536583}">
-  <dimension ref="A1:E28"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF7D616-C659-3342-B732-C0539F26A269}">
+  <dimension ref="A2:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2">
-        <v>66.993333300000003</v>
-      </c>
-      <c r="C1" s="2">
-        <v>21.206718550000001</v>
-      </c>
-      <c r="D1" s="2">
-        <v>112.779948</v>
-      </c>
-      <c r="E1" s="2">
-        <v>2.923E-4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>45.864864900000001</v>
-      </c>
-      <c r="C2">
-        <v>-7.3027690000000006E-2</v>
-      </c>
-      <c r="D2">
-        <v>91.802757</v>
-      </c>
-      <c r="E2">
-        <v>5.0698800000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9">
+        <v>1275</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10">
+        <v>3213</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.8179999999999996</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.15409</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.0924999999999998</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9.2289999999999997E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6.0857000000000001</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.3699999999999999E-3</v>
+      </c>
+      <c r="E21">
+        <v>0.63009999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1">
+        <v>113</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11.148</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.29525000000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.206</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>0.996</v>
+      </c>
+      <c r="D23">
+        <v>2.6370000000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.1067</v>
+      </c>
+      <c r="F23">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D24">
+        <v>1.464E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="F24">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>2.5369999999999999</v>
+      </c>
+      <c r="D25">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="E25">
+        <v>1.0696000000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26">
+        <v>161</v>
+      </c>
+      <c r="C26">
+        <v>13.17</v>
+      </c>
+      <c r="D26">
+        <v>0.34878999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27">
+        <v>352</v>
+      </c>
+      <c r="C27">
+        <v>37.759</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="1">
+        <v>23</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.27635999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.20156E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3.0869</v>
+      </c>
+      <c r="G32" s="1">
+        <v>999</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33">
+        <v>329</v>
+      </c>
+      <c r="D33">
+        <v>1.2806200000000001</v>
+      </c>
+      <c r="E33">
+        <v>3.8925000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7.1150000000000005E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1.0164299999999999E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2.5009000000000001</v>
+      </c>
+      <c r="G35" s="1">
+        <v>999</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>345</v>
+      </c>
+      <c r="D36">
+        <v>1.40218</v>
+      </c>
+      <c r="E36">
+        <v>4.0642999999999999E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4.7547414199999999E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1.1137164E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>8.3957660000000003E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2.1050999999999999E-3</v>
+      </c>
+      <c r="H38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>23</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5.3730000000000002</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.19306999999999999</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3.0103</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3.1021000000000001</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.11147</v>
+      </c>
+      <c r="E43" s="1">
+        <v>7.9947999999999997</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="1">
+        <v>67</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6.3167</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.22697999999999999</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.2149000000000001</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45">
+        <v>168</v>
+      </c>
+      <c r="C45">
+        <v>13.0373</v>
+      </c>
+      <c r="D45">
+        <v>0.46848000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46">
+        <v>263</v>
+      </c>
+      <c r="C46">
+        <v>27.8291</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1">
+        <v>23</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5.3730000000000002</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.19306999999999999</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2.5116000000000001</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0.1361</v>
+      </c>
+      <c r="D50">
+        <v>4.8900000000000002E-3</v>
+      </c>
+      <c r="E50">
+        <v>1.4633</v>
+      </c>
+      <c r="F50">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>0.74170000000000003</v>
+      </c>
+      <c r="D51">
+        <v>2.665E-2</v>
+      </c>
+      <c r="E51">
+        <v>1.1392</v>
+      </c>
+      <c r="F51">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52">
+        <v>232</v>
+      </c>
+      <c r="C52">
+        <v>21.578299999999999</v>
+      </c>
+      <c r="D52">
+        <v>0.77539000000000002</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53">
+        <v>263</v>
+      </c>
+      <c r="C53">
+        <v>27.8291</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731B6600-532C-DB45-86E3-C6F912FAD49E}">
+  <dimension ref="A3:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>-45.197674399999997</v>
-      </c>
-      <c r="C3">
-        <v>-98.681835980000002</v>
-      </c>
-      <c r="D3">
-        <v>8.2864869999999993</v>
-      </c>
-      <c r="E3">
-        <v>0.16789950000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>41.688985500000001</v>
-      </c>
-      <c r="C4">
-        <v>-10.28187234</v>
-      </c>
-      <c r="D4">
-        <v>93.659842999999995</v>
-      </c>
-      <c r="E4">
-        <v>0.22266079999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>0.1389494</v>
+      </c>
+      <c r="C5">
+        <v>8.6486549999999995E-2</v>
+      </c>
+      <c r="D5">
+        <v>6.2752139999999998E-2</v>
+      </c>
+      <c r="E5">
+        <v>5.0864979999999997E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.3895369999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.3303029999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2.2966670000000002E-2</v>
+      </c>
+      <c r="C7">
+        <v>2.1002710000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>2.0908E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.587879E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E2C739-C7FC-DE4A-9AE5-679E1D4E7951}">
+  <dimension ref="A3:P35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>-64.714285700000005</v>
-      </c>
-      <c r="C5">
-        <v>-145.77225276999999</v>
-      </c>
-      <c r="D5">
-        <v>16.343681</v>
-      </c>
-      <c r="E5">
-        <v>0.22801730000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>-49.233333299999998</v>
-      </c>
-      <c r="C6">
-        <v>-127.99674081000001</v>
-      </c>
-      <c r="D6">
-        <v>29.530073999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.54753269999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>40.064761900000001</v>
-      </c>
-      <c r="C7">
-        <v>-40.728864469999998</v>
-      </c>
-      <c r="D7">
-        <v>120.85838800000001</v>
-      </c>
-      <c r="E7">
-        <v>0.80054329999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>-25.304347799999999</v>
-      </c>
-      <c r="C8">
-        <v>-77.685203360000003</v>
-      </c>
-      <c r="D8">
-        <v>27.076508</v>
-      </c>
-      <c r="E8">
-        <v>0.82126350000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9">
-        <v>-39.409937900000003</v>
-      </c>
-      <c r="C9">
-        <v>-124.11501445</v>
-      </c>
-      <c r="D9">
-        <v>45.295138999999999</v>
-      </c>
-      <c r="E9">
-        <v>0.84815459999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>-21.1284685</v>
-      </c>
-      <c r="C10">
-        <v>-66.598304749999997</v>
-      </c>
-      <c r="D10">
-        <v>24.341367999999999</v>
-      </c>
-      <c r="E10">
-        <v>0.84900540000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>21.795658899999999</v>
-      </c>
-      <c r="C11">
-        <v>-31.287027309999999</v>
-      </c>
-      <c r="D11">
-        <v>74.878344999999996</v>
-      </c>
-      <c r="E11">
-        <v>0.91538220000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>20.560517000000001</v>
-      </c>
-      <c r="C12">
-        <v>-31.543666519999999</v>
-      </c>
-      <c r="D12">
-        <v>72.664700999999994</v>
-      </c>
-      <c r="E12">
-        <v>0.93060889999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I11" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13">
-        <v>-37.785714300000002</v>
-      </c>
-      <c r="C13">
-        <v>-142.67417882000001</v>
-      </c>
-      <c r="D13">
-        <v>67.10275</v>
-      </c>
-      <c r="E13">
-        <v>0.95684130000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>19.893326600000002</v>
-      </c>
-      <c r="C14">
-        <v>-38.971871190000002</v>
-      </c>
-      <c r="D14">
-        <v>78.758523999999994</v>
-      </c>
-      <c r="E14">
-        <v>0.96953029999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>-26.928571399999999</v>
-      </c>
-      <c r="C15">
-        <v>-107.98653849</v>
-      </c>
-      <c r="D15">
-        <v>54.129396</v>
-      </c>
-      <c r="E15">
-        <v>0.97229569999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I15" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16">
-        <v>-23.9289855</v>
-      </c>
-      <c r="C16">
-        <v>-106.44098663</v>
-      </c>
-      <c r="D16">
-        <v>58.583016000000001</v>
-      </c>
-      <c r="E16">
-        <v>0.987313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>18.9362934</v>
-      </c>
-      <c r="C17">
-        <v>-61.943159710000003</v>
-      </c>
-      <c r="D17">
-        <v>99.815747000000002</v>
-      </c>
-      <c r="E17">
-        <v>0.99655899999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>-18.849420800000001</v>
-      </c>
-      <c r="C18">
-        <v>-99.728874000000005</v>
-      </c>
-      <c r="D18">
-        <v>62.030031999999999</v>
-      </c>
-      <c r="E18">
-        <v>0.99665689999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19">
-        <v>-19.516611300000001</v>
-      </c>
-      <c r="C19">
-        <v>-104.90836444999999</v>
-      </c>
-      <c r="D19">
-        <v>65.875141999999997</v>
-      </c>
-      <c r="E19">
-        <v>0.99704280000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>17.760000000000002</v>
-      </c>
-      <c r="C20">
-        <v>-60.731339630000001</v>
-      </c>
-      <c r="D20">
-        <v>96.251339999999999</v>
-      </c>
-      <c r="E20">
-        <v>0.99722460000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>-22.304761899999999</v>
-      </c>
-      <c r="C21">
-        <v>-125.43026955000001</v>
-      </c>
-      <c r="D21">
-        <v>80.820746</v>
-      </c>
-      <c r="E21">
-        <v>0.99791529999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22">
-        <v>18.269103000000001</v>
-      </c>
-      <c r="C22">
-        <v>-67.12265017</v>
-      </c>
-      <c r="D22">
-        <v>103.660856</v>
-      </c>
-      <c r="E22">
-        <v>0.99805520000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23">
-        <v>-15.4809524</v>
-      </c>
-      <c r="C23">
-        <v>-118.60646002</v>
-      </c>
-      <c r="D23">
-        <v>87.644554999999997</v>
-      </c>
-      <c r="E23">
-        <v>0.99980939999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24">
-        <v>-4.0356588999999996</v>
-      </c>
-      <c r="C24">
-        <v>-87.252435109999993</v>
-      </c>
-      <c r="D24">
-        <v>79.181117</v>
-      </c>
-      <c r="E24">
-        <v>0.99999990000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>0.66719039999999996</v>
-      </c>
-      <c r="C25">
-        <v>-52.546035879999998</v>
-      </c>
-      <c r="D25">
-        <v>53.880417000000001</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26">
-        <v>-3.3684685000000001</v>
-      </c>
-      <c r="C26">
-        <v>-81.948149529999995</v>
-      </c>
-      <c r="D26">
-        <v>75.211213000000001</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>2.2790476000000002</v>
-      </c>
-      <c r="C27">
-        <v>-78.514578749999998</v>
-      </c>
-      <c r="D27">
-        <v>83.072674000000006</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28">
-        <v>-1.6242236000000001</v>
-      </c>
-      <c r="C28">
-        <v>-86.329300169999996</v>
-      </c>
-      <c r="D28">
-        <v>83.080853000000005</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E28">
-    <sortCondition ref="E1:E28"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/landscape 16s richness stats.xlsx
+++ b/landscape 16s richness stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaylematsuda/Desktop/Projects/Mcapitata_microbial_landscape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD504C66-02D1-A845-A31E-EA9350CA389C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6D6AC0-E956-8C46-89D2-AFEA68F049C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36680" yWindow="1620" windowWidth="23820" windowHeight="16940" activeTab="5" xr2:uid="{BF1415AD-8428-B448-8878-A96AF3AA8227}"/>
+    <workbookView xWindow="53120" yWindow="6700" windowWidth="23820" windowHeight="16940" activeTab="5" xr2:uid="{BF1415AD-8428-B448-8878-A96AF3AA8227}"/>
   </bookViews>
   <sheets>
     <sheet name="observed" sheetId="2" r:id="rId1"/>
@@ -643,7 +643,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,6 +680,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -693,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -708,6 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4180,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E2C739-C7FC-DE4A-9AE5-679E1D4E7951}">
   <dimension ref="A3:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4489,7 +4496,7 @@
       <c r="B17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="14" t="s">
         <v>141</v>
       </c>
       <c r="D17" s="11" t="s">
